--- a/Unit_Test_No50.xlsx
+++ b/Unit_Test_No50.xlsx
@@ -242,12 +242,6 @@
     <t>all checkbox on page 1 is still checked</t>
   </si>
   <si>
-    <t>1.Checked on a checkbox on the first page
-2. Click page 2
-3. Checked on a checkbox on the  page 2
-4. Click first page</t>
-  </si>
-  <si>
     <t>1 .Checked on a checkbox on the first page
 2. Click page 2
 3. Checked on a checkbox on the  page 2
@@ -293,6 +287,12 @@
   </si>
   <si>
     <t>LongNP4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Checked on a checkbox on the first page
+2. Click page 2
+3. Checked on a checkbox on the  page 2
+4. Click first page </t>
   </si>
 </sst>
 </file>
@@ -709,7 +709,151 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -721,24 +865,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -765,132 +891,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -929,7 +929,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{26D44C32-CB86-40C5-A148-D27D4FFEDF54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D44C32-CB86-40C5-A148-D27D4FFEDF54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1391,7 +1391,7 @@
   <dimension ref="A1:AS13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:W7"/>
+      <selection activeCell="M6" sqref="M6:W6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15.95" customHeight="1"/>
@@ -1408,180 +1408,180 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:45" ht="15.95" customHeight="1">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="50"/>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="50"/>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="53" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53"/>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="31" t="s">
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
+      <c r="U1" s="24"/>
+      <c r="V1" s="24"/>
+      <c r="W1" s="24"/>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="24"/>
+      <c r="AB1" s="24"/>
+      <c r="AC1" s="24"/>
+      <c r="AD1" s="24"/>
+      <c r="AE1" s="25"/>
+      <c r="AF1" s="48" t="s">
+        <v>3</v>
+      </c>
+      <c r="AG1" s="30"/>
+      <c r="AH1" s="31"/>
+      <c r="AI1" s="35">
+        <v>43227</v>
+      </c>
+      <c r="AJ1" s="36"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="AN1" s="30"/>
+      <c r="AO1" s="31"/>
+      <c r="AP1" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32"/>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="55" t="s">
-        <v>3</v>
-      </c>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="39"/>
-      <c r="AI1" s="43">
-        <v>43227</v>
-      </c>
-      <c r="AJ1" s="44"/>
-      <c r="AK1" s="44"/>
-      <c r="AL1" s="45"/>
-      <c r="AM1" s="37" t="s">
-        <v>8</v>
-      </c>
-      <c r="AN1" s="38"/>
-      <c r="AO1" s="39"/>
-      <c r="AP1" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="AQ1" s="26"/>
-      <c r="AR1" s="26"/>
-      <c r="AS1" s="27"/>
+      <c r="AQ1" s="18"/>
+      <c r="AR1" s="18"/>
+      <c r="AS1" s="19"/>
     </row>
     <row r="2" spans="1:45" ht="15.95" customHeight="1" thickBot="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="54"/>
-      <c r="L2" s="54"/>
-      <c r="M2" s="54"/>
-      <c r="N2" s="54"/>
-      <c r="O2" s="54"/>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="34"/>
-      <c r="R2" s="35"/>
-      <c r="S2" s="35"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="35"/>
-      <c r="V2" s="35"/>
-      <c r="W2" s="35"/>
-      <c r="X2" s="35"/>
-      <c r="Y2" s="35"/>
-      <c r="Z2" s="35"/>
-      <c r="AA2" s="35"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="35"/>
-      <c r="AD2" s="35"/>
-      <c r="AE2" s="36"/>
-      <c r="AF2" s="56"/>
-      <c r="AG2" s="41"/>
-      <c r="AH2" s="42"/>
-      <c r="AI2" s="46"/>
-      <c r="AJ2" s="47"/>
-      <c r="AK2" s="47"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="40"/>
-      <c r="AN2" s="41"/>
-      <c r="AO2" s="42"/>
-      <c r="AP2" s="28"/>
-      <c r="AQ2" s="29"/>
-      <c r="AR2" s="29"/>
-      <c r="AS2" s="30"/>
+      <c r="A2" s="44"/>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="26"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27"/>
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="33"/>
+      <c r="AH2" s="34"/>
+      <c r="AI2" s="38"/>
+      <c r="AJ2" s="39"/>
+      <c r="AK2" s="39"/>
+      <c r="AL2" s="40"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="33"/>
+      <c r="AO2" s="34"/>
+      <c r="AP2" s="20"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="22"/>
     </row>
     <row r="3" spans="1:45" ht="8.1" customHeight="1"/>
     <row r="4" spans="1:45" s="3" customFormat="1" ht="15.95" customHeight="1">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24" t="s">
+      <c r="B4" s="41"/>
+      <c r="C4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="24" t="s">
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="24" t="s">
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="N4" s="24"/>
-      <c r="O4" s="24"/>
-      <c r="P4" s="24"/>
-      <c r="Q4" s="24"/>
-      <c r="R4" s="24"/>
-      <c r="S4" s="24"/>
-      <c r="T4" s="24"/>
-      <c r="U4" s="24"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="24"/>
-      <c r="X4" s="24" t="s">
+      <c r="N4" s="41"/>
+      <c r="O4" s="41"/>
+      <c r="P4" s="41"/>
+      <c r="Q4" s="41"/>
+      <c r="R4" s="41"/>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="Y4" s="24"/>
-      <c r="Z4" s="24"/>
-      <c r="AA4" s="24"/>
-      <c r="AB4" s="24"/>
-      <c r="AC4" s="24"/>
-      <c r="AD4" s="24"/>
-      <c r="AE4" s="24"/>
-      <c r="AF4" s="24"/>
-      <c r="AG4" s="24"/>
-      <c r="AH4" s="24"/>
-      <c r="AI4" s="24" t="s">
+      <c r="Y4" s="41"/>
+      <c r="Z4" s="41"/>
+      <c r="AA4" s="41"/>
+      <c r="AB4" s="41"/>
+      <c r="AC4" s="41"/>
+      <c r="AD4" s="41"/>
+      <c r="AE4" s="41"/>
+      <c r="AF4" s="41"/>
+      <c r="AG4" s="41"/>
+      <c r="AH4" s="41"/>
+      <c r="AI4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="AJ4" s="24"/>
-      <c r="AK4" s="24" t="s">
+      <c r="AJ4" s="41"/>
+      <c r="AK4" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="AL4" s="24"/>
-      <c r="AM4" s="24" t="s">
+      <c r="AL4" s="41"/>
+      <c r="AM4" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="AN4" s="24"/>
-      <c r="AO4" s="24" t="s">
+      <c r="AN4" s="41"/>
+      <c r="AO4" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AP4" s="24"/>
-      <c r="AQ4" s="24"/>
-      <c r="AR4" s="24" t="s">
+      <c r="AP4" s="41"/>
+      <c r="AQ4" s="41"/>
+      <c r="AR4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="AS4" s="24"/>
+      <c r="AS4" s="41"/>
     </row>
     <row r="5" spans="1:45" ht="50.25" customHeight="1">
       <c r="A5" s="14">
@@ -1589,67 +1589,67 @@
         <v>1</v>
       </c>
       <c r="B5" s="14"/>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="57" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="58"/>
-      <c r="J5" s="58"/>
-      <c r="K5" s="58"/>
-      <c r="L5" s="59"/>
-      <c r="M5" s="13" t="s">
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13" t="s">
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="16"/>
+      <c r="U5" s="16"/>
+      <c r="V5" s="16"/>
+      <c r="W5" s="16"/>
+      <c r="X5" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-      <c r="AC5" s="13"/>
-      <c r="AD5" s="13"/>
-      <c r="AE5" s="13"/>
-      <c r="AF5" s="13"/>
-      <c r="AG5" s="13"/>
-      <c r="AH5" s="13"/>
-      <c r="AI5" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ5" s="5"/>
-      <c r="AK5" s="6">
+      <c r="Y5" s="16"/>
+      <c r="Z5" s="16"/>
+      <c r="AA5" s="16"/>
+      <c r="AB5" s="16"/>
+      <c r="AC5" s="16"/>
+      <c r="AD5" s="16"/>
+      <c r="AE5" s="16"/>
+      <c r="AF5" s="16"/>
+      <c r="AG5" s="16"/>
+      <c r="AH5" s="16"/>
+      <c r="AI5" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="54">
         <v>43227</v>
       </c>
-      <c r="AL5" s="7"/>
-      <c r="AM5" s="8" t="s">
+      <c r="AL5" s="55"/>
+      <c r="AM5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="9" t="s">
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP5" s="10"/>
-      <c r="AQ5" s="10"/>
-      <c r="AR5" s="11" t="s">
+      <c r="AP5" s="51"/>
+      <c r="AQ5" s="51"/>
+      <c r="AR5" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS5" s="12"/>
+      <c r="AS5" s="53"/>
     </row>
     <row r="6" spans="1:45" ht="64.5" customHeight="1">
       <c r="A6" s="14">
@@ -1657,63 +1657,63 @@
         <v>2</v>
       </c>
       <c r="B6" s="14"/>
-      <c r="C6" s="60"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="62"/>
-      <c r="M6" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13" t="s">
+      <c r="C6" s="8"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+      <c r="R6" s="16"/>
+      <c r="S6" s="16"/>
+      <c r="T6" s="16"/>
+      <c r="U6" s="16"/>
+      <c r="V6" s="16"/>
+      <c r="W6" s="16"/>
+      <c r="X6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
-      <c r="AC6" s="13"/>
-      <c r="AD6" s="13"/>
-      <c r="AE6" s="13"/>
-      <c r="AF6" s="13"/>
-      <c r="AG6" s="13"/>
-      <c r="AH6" s="13"/>
-      <c r="AI6" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ6" s="5"/>
-      <c r="AK6" s="6">
+      <c r="Y6" s="16"/>
+      <c r="Z6" s="16"/>
+      <c r="AA6" s="16"/>
+      <c r="AB6" s="16"/>
+      <c r="AC6" s="16"/>
+      <c r="AD6" s="16"/>
+      <c r="AE6" s="16"/>
+      <c r="AF6" s="16"/>
+      <c r="AG6" s="16"/>
+      <c r="AH6" s="16"/>
+      <c r="AI6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ6" s="15"/>
+      <c r="AK6" s="54">
         <v>43227</v>
       </c>
-      <c r="AL6" s="7"/>
-      <c r="AM6" s="8" t="s">
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="9" t="s">
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP6" s="10"/>
-      <c r="AQ6" s="10"/>
-      <c r="AR6" s="11" t="s">
+      <c r="AP6" s="51"/>
+      <c r="AQ6" s="51"/>
+      <c r="AR6" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS6" s="12"/>
+      <c r="AS6" s="53"/>
     </row>
     <row r="7" spans="1:45" ht="84.75" customHeight="1">
       <c r="A7" s="14">
@@ -1721,63 +1721,63 @@
         <v>3</v>
       </c>
       <c r="B7" s="14"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="60"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="62"/>
-      <c r="M7" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="13"/>
-      <c r="S7" s="13"/>
-      <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="13"/>
-      <c r="W7" s="13"/>
-      <c r="X7" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y7" s="13"/>
-      <c r="Z7" s="13"/>
-      <c r="AA7" s="13"/>
-      <c r="AB7" s="13"/>
-      <c r="AC7" s="13"/>
-      <c r="AD7" s="13"/>
-      <c r="AE7" s="13"/>
-      <c r="AF7" s="13"/>
-      <c r="AG7" s="13"/>
-      <c r="AH7" s="13"/>
-      <c r="AI7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ7" s="5"/>
-      <c r="AK7" s="6">
+      <c r="C7" s="8"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+      <c r="R7" s="16"/>
+      <c r="S7" s="16"/>
+      <c r="T7" s="16"/>
+      <c r="U7" s="16"/>
+      <c r="V7" s="16"/>
+      <c r="W7" s="16"/>
+      <c r="X7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y7" s="16"/>
+      <c r="Z7" s="16"/>
+      <c r="AA7" s="16"/>
+      <c r="AB7" s="16"/>
+      <c r="AC7" s="16"/>
+      <c r="AD7" s="16"/>
+      <c r="AE7" s="16"/>
+      <c r="AF7" s="16"/>
+      <c r="AG7" s="16"/>
+      <c r="AH7" s="16"/>
+      <c r="AI7" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ7" s="15"/>
+      <c r="AK7" s="54">
         <v>43227</v>
       </c>
-      <c r="AL7" s="7"/>
-      <c r="AM7" s="8" t="s">
+      <c r="AL7" s="55"/>
+      <c r="AM7" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN7" s="8"/>
-      <c r="AO7" s="9" t="s">
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP7" s="10"/>
-      <c r="AQ7" s="10"/>
-      <c r="AR7" s="11" t="s">
+      <c r="AP7" s="51"/>
+      <c r="AQ7" s="51"/>
+      <c r="AR7" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS7" s="12"/>
+      <c r="AS7" s="53"/>
     </row>
     <row r="8" spans="1:45" ht="66.75" customHeight="1">
       <c r="A8" s="14">
@@ -1785,63 +1785,63 @@
         <v>4</v>
       </c>
       <c r="B8" s="14"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="61"/>
-      <c r="F8" s="61"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
-      <c r="J8" s="61"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="13" t="s">
+      <c r="C8" s="8"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="13"/>
-      <c r="S8" s="13"/>
-      <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="13"/>
-      <c r="W8" s="13"/>
-      <c r="X8" s="13" t="s">
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+      <c r="R8" s="16"/>
+      <c r="S8" s="16"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
+      <c r="W8" s="16"/>
+      <c r="X8" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="Y8" s="13"/>
-      <c r="Z8" s="13"/>
-      <c r="AA8" s="13"/>
-      <c r="AB8" s="13"/>
-      <c r="AC8" s="13"/>
-      <c r="AD8" s="13"/>
-      <c r="AE8" s="13"/>
-      <c r="AF8" s="13"/>
-      <c r="AG8" s="13"/>
-      <c r="AH8" s="13"/>
-      <c r="AI8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ8" s="5"/>
-      <c r="AK8" s="6">
+      <c r="Y8" s="16"/>
+      <c r="Z8" s="16"/>
+      <c r="AA8" s="16"/>
+      <c r="AB8" s="16"/>
+      <c r="AC8" s="16"/>
+      <c r="AD8" s="16"/>
+      <c r="AE8" s="16"/>
+      <c r="AF8" s="16"/>
+      <c r="AG8" s="16"/>
+      <c r="AH8" s="16"/>
+      <c r="AI8" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ8" s="15"/>
+      <c r="AK8" s="54">
         <v>43227</v>
       </c>
-      <c r="AL8" s="7"/>
-      <c r="AM8" s="8" t="s">
+      <c r="AL8" s="55"/>
+      <c r="AM8" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN8" s="8"/>
-      <c r="AO8" s="9" t="s">
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP8" s="10"/>
-      <c r="AQ8" s="10"/>
-      <c r="AR8" s="11" t="s">
+      <c r="AP8" s="51"/>
+      <c r="AQ8" s="51"/>
+      <c r="AR8" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS8" s="12"/>
+      <c r="AS8" s="53"/>
     </row>
     <row r="9" spans="1:45" ht="84.75" customHeight="1">
       <c r="A9" s="14">
@@ -1849,63 +1849,63 @@
         <v>5</v>
       </c>
       <c r="B9" s="14"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
-      <c r="M9" s="13" t="s">
+      <c r="C9" s="8"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="13"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="13"/>
-      <c r="X9" s="13" t="s">
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+      <c r="R9" s="16"/>
+      <c r="S9" s="16"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
+      <c r="W9" s="16"/>
+      <c r="X9" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="Y9" s="13"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="13"/>
-      <c r="AF9" s="13"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ9" s="5"/>
-      <c r="AK9" s="6">
+      <c r="Y9" s="16"/>
+      <c r="Z9" s="16"/>
+      <c r="AA9" s="16"/>
+      <c r="AB9" s="16"/>
+      <c r="AC9" s="16"/>
+      <c r="AD9" s="16"/>
+      <c r="AE9" s="16"/>
+      <c r="AF9" s="16"/>
+      <c r="AG9" s="16"/>
+      <c r="AH9" s="16"/>
+      <c r="AI9" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ9" s="15"/>
+      <c r="AK9" s="54">
         <v>43227</v>
       </c>
-      <c r="AL9" s="7"/>
-      <c r="AM9" s="8" t="s">
+      <c r="AL9" s="55"/>
+      <c r="AM9" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN9" s="8"/>
-      <c r="AO9" s="9" t="s">
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP9" s="10"/>
-      <c r="AQ9" s="10"/>
-      <c r="AR9" s="11" t="s">
+      <c r="AP9" s="51"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS9" s="12"/>
+      <c r="AS9" s="53"/>
     </row>
     <row r="10" spans="1:45" ht="48.75" customHeight="1">
       <c r="A10" s="14">
@@ -1913,65 +1913,65 @@
         <v>6</v>
       </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="60"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="15" t="s">
+      <c r="C10" s="8"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="13" t="s">
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="13"/>
-      <c r="S10" s="13"/>
-      <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="13"/>
-      <c r="W10" s="13"/>
-      <c r="X10" s="13" t="s">
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+      <c r="R10" s="16"/>
+      <c r="S10" s="16"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
+      <c r="W10" s="16"/>
+      <c r="X10" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="Y10" s="13"/>
-      <c r="Z10" s="13"/>
-      <c r="AA10" s="13"/>
-      <c r="AB10" s="13"/>
-      <c r="AC10" s="13"/>
-      <c r="AD10" s="13"/>
-      <c r="AE10" s="13"/>
-      <c r="AF10" s="13"/>
-      <c r="AG10" s="13"/>
-      <c r="AH10" s="13"/>
-      <c r="AI10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ10" s="5"/>
-      <c r="AK10" s="6">
+      <c r="Y10" s="16"/>
+      <c r="Z10" s="16"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ10" s="15"/>
+      <c r="AK10" s="54">
         <v>43227</v>
       </c>
-      <c r="AL10" s="7"/>
-      <c r="AM10" s="8" t="s">
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN10" s="8"/>
-      <c r="AO10" s="9" t="s">
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP10" s="10"/>
-      <c r="AQ10" s="10"/>
-      <c r="AR10" s="11" t="s">
+      <c r="AP10" s="51"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS10" s="12"/>
+      <c r="AS10" s="53"/>
     </row>
     <row r="11" spans="1:45" ht="48.75" customHeight="1">
       <c r="A11" s="14">
@@ -1979,63 +1979,63 @@
         <v>7</v>
       </c>
       <c r="B11" s="14"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="61"/>
-      <c r="F11" s="61"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="20"/>
-      <c r="M11" s="13" t="s">
+      <c r="C11" s="8"/>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="61"/>
+      <c r="J11" s="61"/>
+      <c r="K11" s="61"/>
+      <c r="L11" s="62"/>
+      <c r="M11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+      <c r="R11" s="16"/>
+      <c r="S11" s="16"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
+      <c r="W11" s="16"/>
+      <c r="X11" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-      <c r="Q11" s="13"/>
-      <c r="R11" s="13"/>
-      <c r="S11" s="13"/>
-      <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="13"/>
-      <c r="W11" s="13"/>
-      <c r="X11" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y11" s="13"/>
-      <c r="Z11" s="13"/>
-      <c r="AA11" s="13"/>
-      <c r="AB11" s="13"/>
-      <c r="AC11" s="13"/>
-      <c r="AD11" s="13"/>
-      <c r="AE11" s="13"/>
-      <c r="AF11" s="13"/>
-      <c r="AG11" s="13"/>
-      <c r="AH11" s="13"/>
-      <c r="AI11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ11" s="5"/>
-      <c r="AK11" s="6">
+      <c r="Y11" s="16"/>
+      <c r="Z11" s="16"/>
+      <c r="AA11" s="16"/>
+      <c r="AB11" s="16"/>
+      <c r="AC11" s="16"/>
+      <c r="AD11" s="16"/>
+      <c r="AE11" s="16"/>
+      <c r="AF11" s="16"/>
+      <c r="AG11" s="16"/>
+      <c r="AH11" s="16"/>
+      <c r="AI11" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ11" s="15"/>
+      <c r="AK11" s="54">
         <v>43227</v>
       </c>
-      <c r="AL11" s="7"/>
-      <c r="AM11" s="8" t="s">
+      <c r="AL11" s="55"/>
+      <c r="AM11" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN11" s="8"/>
-      <c r="AO11" s="9" t="s">
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP11" s="10"/>
-      <c r="AQ11" s="10"/>
-      <c r="AR11" s="11" t="s">
+      <c r="AP11" s="51"/>
+      <c r="AQ11" s="51"/>
+      <c r="AR11" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS11" s="12"/>
+      <c r="AS11" s="53"/>
     </row>
     <row r="12" spans="1:45" ht="48.75" customHeight="1">
       <c r="A12" s="14">
@@ -2043,63 +2043,63 @@
         <v>8</v>
       </c>
       <c r="B12" s="14"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
-      <c r="F12" s="61"/>
-      <c r="G12" s="62"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="13" t="s">
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="60"/>
+      <c r="I12" s="61"/>
+      <c r="J12" s="61"/>
+      <c r="K12" s="61"/>
+      <c r="L12" s="62"/>
+      <c r="M12" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+      <c r="R12" s="16"/>
+      <c r="S12" s="16"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
+      <c r="W12" s="16"/>
+      <c r="X12" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="N12" s="13"/>
-      <c r="O12" s="13"/>
-      <c r="P12" s="13"/>
-      <c r="Q12" s="13"/>
-      <c r="R12" s="13"/>
-      <c r="S12" s="13"/>
-      <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="13"/>
-      <c r="W12" s="13"/>
-      <c r="X12" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="Y12" s="13"/>
-      <c r="Z12" s="13"/>
-      <c r="AA12" s="13"/>
-      <c r="AB12" s="13"/>
-      <c r="AC12" s="13"/>
-      <c r="AD12" s="13"/>
-      <c r="AE12" s="13"/>
-      <c r="AF12" s="13"/>
-      <c r="AG12" s="13"/>
-      <c r="AH12" s="13"/>
-      <c r="AI12" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ12" s="5"/>
-      <c r="AK12" s="6">
+      <c r="Y12" s="16"/>
+      <c r="Z12" s="16"/>
+      <c r="AA12" s="16"/>
+      <c r="AB12" s="16"/>
+      <c r="AC12" s="16"/>
+      <c r="AD12" s="16"/>
+      <c r="AE12" s="16"/>
+      <c r="AF12" s="16"/>
+      <c r="AG12" s="16"/>
+      <c r="AH12" s="16"/>
+      <c r="AI12" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ12" s="15"/>
+      <c r="AK12" s="54">
         <v>43227</v>
       </c>
-      <c r="AL12" s="7"/>
-      <c r="AM12" s="8" t="s">
+      <c r="AL12" s="55"/>
+      <c r="AM12" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN12" s="8"/>
-      <c r="AO12" s="9" t="s">
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP12" s="10"/>
-      <c r="AQ12" s="10"/>
-      <c r="AR12" s="11" t="s">
+      <c r="AP12" s="51"/>
+      <c r="AQ12" s="51"/>
+      <c r="AR12" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS12" s="12"/>
+      <c r="AS12" s="53"/>
     </row>
     <row r="13" spans="1:45" ht="61.5" customHeight="1">
       <c r="A13" s="14">
@@ -2107,66 +2107,142 @@
         <v>9</v>
       </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="64"/>
-      <c r="E13" s="64"/>
-      <c r="F13" s="64"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="13" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="63"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+      <c r="K13" s="64"/>
+      <c r="L13" s="65"/>
+      <c r="M13" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+      <c r="W13" s="16"/>
+      <c r="X13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13"/>
-      <c r="Q13" s="13"/>
-      <c r="R13" s="13"/>
-      <c r="S13" s="13"/>
-      <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="13"/>
-      <c r="W13" s="13"/>
-      <c r="X13" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y13" s="13"/>
-      <c r="Z13" s="13"/>
-      <c r="AA13" s="13"/>
-      <c r="AB13" s="13"/>
-      <c r="AC13" s="13"/>
-      <c r="AD13" s="13"/>
-      <c r="AE13" s="13"/>
-      <c r="AF13" s="13"/>
-      <c r="AG13" s="13"/>
-      <c r="AH13" s="13"/>
-      <c r="AI13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="AJ13" s="5"/>
-      <c r="AK13" s="6">
+      <c r="Y13" s="16"/>
+      <c r="Z13" s="16"/>
+      <c r="AA13" s="16"/>
+      <c r="AB13" s="16"/>
+      <c r="AC13" s="16"/>
+      <c r="AD13" s="16"/>
+      <c r="AE13" s="16"/>
+      <c r="AF13" s="16"/>
+      <c r="AG13" s="16"/>
+      <c r="AH13" s="16"/>
+      <c r="AI13" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="AJ13" s="15"/>
+      <c r="AK13" s="54">
         <v>43227</v>
       </c>
-      <c r="AL13" s="7"/>
-      <c r="AM13" s="8" t="s">
+      <c r="AL13" s="55"/>
+      <c r="AM13" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="AN13" s="8"/>
-      <c r="AO13" s="9" t="s">
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="AP13" s="10"/>
-      <c r="AQ13" s="10"/>
-      <c r="AR13" s="11" t="s">
+      <c r="AP13" s="51"/>
+      <c r="AQ13" s="51"/>
+      <c r="AR13" s="52" t="s">
         <v>16</v>
       </c>
-      <c r="AS13" s="12"/>
+      <c r="AS13" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="92">
+    <mergeCell ref="AI12:AJ12"/>
+    <mergeCell ref="AK12:AL12"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AO12:AQ12"/>
+    <mergeCell ref="AR12:AS12"/>
+    <mergeCell ref="AI13:AJ13"/>
+    <mergeCell ref="AK13:AL13"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AQ13"/>
+    <mergeCell ref="AR13:AS13"/>
+    <mergeCell ref="AI10:AJ10"/>
+    <mergeCell ref="AK10:AL10"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AO10:AQ10"/>
+    <mergeCell ref="AR10:AS10"/>
+    <mergeCell ref="AI11:AJ11"/>
+    <mergeCell ref="AK11:AL11"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AO11:AQ11"/>
+    <mergeCell ref="AR11:AS11"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="M12:W12"/>
+    <mergeCell ref="X12:AH12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="M13:W13"/>
+    <mergeCell ref="X13:AH13"/>
+    <mergeCell ref="M10:W10"/>
+    <mergeCell ref="X10:AH10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="M11:W11"/>
+    <mergeCell ref="X11:AH11"/>
+    <mergeCell ref="AO8:AQ8"/>
+    <mergeCell ref="AR8:AS8"/>
+    <mergeCell ref="M6:W6"/>
+    <mergeCell ref="X6:AH6"/>
+    <mergeCell ref="AM6:AN6"/>
+    <mergeCell ref="AO6:AQ6"/>
+    <mergeCell ref="AR6:AS6"/>
+    <mergeCell ref="AI6:AJ6"/>
+    <mergeCell ref="AR7:AS7"/>
+    <mergeCell ref="AK7:AL7"/>
+    <mergeCell ref="AM7:AN7"/>
+    <mergeCell ref="AO7:AQ7"/>
+    <mergeCell ref="AO5:AQ5"/>
+    <mergeCell ref="AR5:AS5"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M5:W5"/>
+    <mergeCell ref="X5:AH5"/>
+    <mergeCell ref="AI5:AJ5"/>
+    <mergeCell ref="AK5:AL5"/>
+    <mergeCell ref="AM5:AN5"/>
+    <mergeCell ref="H5:L9"/>
+    <mergeCell ref="AK9:AL9"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AQ9"/>
+    <mergeCell ref="AR9:AS9"/>
+    <mergeCell ref="AK6:AL6"/>
+    <mergeCell ref="AK8:AL8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="A1:J2"/>
+    <mergeCell ref="K1:P2"/>
+    <mergeCell ref="AF1:AH2"/>
+    <mergeCell ref="M4:W4"/>
+    <mergeCell ref="X4:AH4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="AP1:AS2"/>
+    <mergeCell ref="Q1:AE2"/>
+    <mergeCell ref="AM1:AO2"/>
+    <mergeCell ref="AI1:AL2"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AM4:AN4"/>
+    <mergeCell ref="AR4:AS4"/>
+    <mergeCell ref="AK4:AL4"/>
+    <mergeCell ref="AI4:AJ4"/>
     <mergeCell ref="C5:G13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="AI9:AJ9"/>
@@ -2179,86 +2255,10 @@
     <mergeCell ref="M7:W7"/>
     <mergeCell ref="X7:AH7"/>
     <mergeCell ref="AI7:AJ7"/>
-    <mergeCell ref="AP1:AS2"/>
-    <mergeCell ref="Q1:AE2"/>
-    <mergeCell ref="AM1:AO2"/>
-    <mergeCell ref="AI1:AL2"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AM4:AN4"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="A1:J2"/>
-    <mergeCell ref="K1:P2"/>
-    <mergeCell ref="AF1:AH2"/>
-    <mergeCell ref="M4:W4"/>
-    <mergeCell ref="X4:AH4"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="AO5:AQ5"/>
-    <mergeCell ref="AR5:AS5"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="M5:W5"/>
-    <mergeCell ref="X5:AH5"/>
-    <mergeCell ref="AI5:AJ5"/>
-    <mergeCell ref="AK5:AL5"/>
-    <mergeCell ref="AM5:AN5"/>
-    <mergeCell ref="AR4:AS4"/>
-    <mergeCell ref="AK4:AL4"/>
-    <mergeCell ref="AI4:AJ4"/>
-    <mergeCell ref="H5:L9"/>
-    <mergeCell ref="AK9:AL9"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AQ9"/>
-    <mergeCell ref="AR9:AS9"/>
-    <mergeCell ref="AK6:AL6"/>
-    <mergeCell ref="AK8:AL8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AQ8"/>
-    <mergeCell ref="AR8:AS8"/>
-    <mergeCell ref="M6:W6"/>
-    <mergeCell ref="X6:AH6"/>
-    <mergeCell ref="AM6:AN6"/>
-    <mergeCell ref="AO6:AQ6"/>
-    <mergeCell ref="AR6:AS6"/>
-    <mergeCell ref="AI6:AJ6"/>
-    <mergeCell ref="AR7:AS7"/>
-    <mergeCell ref="AK7:AL7"/>
-    <mergeCell ref="AM7:AN7"/>
-    <mergeCell ref="AO7:AQ7"/>
     <mergeCell ref="M9:W9"/>
     <mergeCell ref="X9:AH9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="H10:L13"/>
-    <mergeCell ref="M10:W10"/>
-    <mergeCell ref="X10:AH10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="M11:W11"/>
-    <mergeCell ref="X11:AH11"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="M12:W12"/>
-    <mergeCell ref="X12:AH12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="M13:W13"/>
-    <mergeCell ref="X13:AH13"/>
-    <mergeCell ref="AI11:AJ11"/>
-    <mergeCell ref="AK11:AL11"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AQ11"/>
-    <mergeCell ref="AR11:AS11"/>
-    <mergeCell ref="AI10:AJ10"/>
-    <mergeCell ref="AK10:AL10"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AO10:AQ10"/>
-    <mergeCell ref="AR10:AS10"/>
-    <mergeCell ref="AI13:AJ13"/>
-    <mergeCell ref="AK13:AL13"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AQ13"/>
-    <mergeCell ref="AR13:AS13"/>
-    <mergeCell ref="AI12:AJ12"/>
-    <mergeCell ref="AK12:AL12"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AO12:AQ12"/>
-    <mergeCell ref="AR12:AS12"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
